--- a/spec/test_data/census_employee_import/DCHL Employee Census 3.xlsx
+++ b/spec/test_data/census_employee_import/DCHL Employee Census 3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioschaffert/workspace/ic/dc-enroll/spec/test_data/census_employee_import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96644560-4BF3-1545-B106-FB623E2BC253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="488"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" tabRatio="488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Census" sheetId="6" r:id="rId1"/>
@@ -35,20 +41,20 @@
     <definedName name="UnitedHealthcare">#REF!</definedName>
     <definedName name="YesNo">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Last Name</t>
   </si>
@@ -296,11 +302,14 @@
   <si>
     <t>DC</t>
   </si>
+  <si>
+    <t>test NE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
@@ -1018,38 +1027,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="80">
-    <cellStyle name="20% - Accent1 2" xfId="4"/>
-    <cellStyle name="20% - Accent2 2" xfId="5"/>
-    <cellStyle name="20% - Accent3 2" xfId="6"/>
-    <cellStyle name="20% - Accent4 2" xfId="7"/>
-    <cellStyle name="20% - Accent5 2" xfId="8"/>
-    <cellStyle name="20% - Accent6 2" xfId="9"/>
-    <cellStyle name="40% - Accent1 2" xfId="10"/>
-    <cellStyle name="40% - Accent2 2" xfId="11"/>
-    <cellStyle name="40% - Accent3 2" xfId="12"/>
-    <cellStyle name="40% - Accent4 2" xfId="13"/>
-    <cellStyle name="40% - Accent5 2" xfId="14"/>
-    <cellStyle name="40% - Accent6 2" xfId="15"/>
-    <cellStyle name="60% - Accent1 2" xfId="16"/>
-    <cellStyle name="60% - Accent2 2" xfId="17"/>
-    <cellStyle name="60% - Accent3 2" xfId="18"/>
-    <cellStyle name="60% - Accent4 2" xfId="19"/>
-    <cellStyle name="60% - Accent5 2" xfId="20"/>
-    <cellStyle name="60% - Accent6 2" xfId="21"/>
-    <cellStyle name="Accent1 2" xfId="22"/>
-    <cellStyle name="Accent2 2" xfId="23"/>
-    <cellStyle name="Accent3 2" xfId="24"/>
-    <cellStyle name="Accent4 2" xfId="25"/>
-    <cellStyle name="Accent5 2" xfId="26"/>
-    <cellStyle name="Accent6 2" xfId="27"/>
-    <cellStyle name="Bad 2" xfId="28"/>
-    <cellStyle name="Calculation 2" xfId="29"/>
-    <cellStyle name="Check Cell 2" xfId="30"/>
-    <cellStyle name="Comma 2" xfId="31"/>
-    <cellStyle name="Comma[0]" xfId="32"/>
-    <cellStyle name="Currency 2" xfId="33"/>
-    <cellStyle name="Currency[0]" xfId="34"/>
-    <cellStyle name="Explanatory Text 2" xfId="35"/>
+    <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Comma 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma[0]" xfId="32" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Currency 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Currency[0]" xfId="34" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
@@ -1064,11 +1073,11 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Good 2" xfId="36"/>
-    <cellStyle name="Heading 1 2" xfId="37"/>
-    <cellStyle name="Heading 2 2" xfId="38"/>
-    <cellStyle name="Heading 3 2" xfId="39"/>
-    <cellStyle name="Heading 4 2" xfId="40"/>
+    <cellStyle name="Good 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Heading 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Heading 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Heading 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Heading 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
@@ -1078,26 +1087,26 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="78" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="41"/>
-    <cellStyle name="Hyperlink 3" xfId="42"/>
-    <cellStyle name="Hyperlink 4" xfId="43"/>
-    <cellStyle name="Hyperlink 5" xfId="44"/>
-    <cellStyle name="Input 2" xfId="45"/>
-    <cellStyle name="Linked Cell 2" xfId="46"/>
-    <cellStyle name="Neutral 2" xfId="47"/>
+    <cellStyle name="Hyperlink 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Input 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Neutral 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="48"/>
-    <cellStyle name="Normal 4" xfId="49"/>
-    <cellStyle name="Normal 5" xfId="50"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal_Benefit Summary" xfId="1"/>
-    <cellStyle name="Note 2" xfId="51"/>
-    <cellStyle name="Output 2" xfId="52"/>
-    <cellStyle name="Percent 2" xfId="53"/>
-    <cellStyle name="Title 2" xfId="54"/>
-    <cellStyle name="Total 2" xfId="55"/>
-    <cellStyle name="Warning Text 2" xfId="56"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal_Benefit Summary" xfId="1" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Note 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Output 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Percent 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Title 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Total 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Warning Text 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1122,6 +1131,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1413,15 +1425,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="13" customWidth="1"/>
@@ -1444,7 +1456,7 @@
     <col min="22" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:21" s="20" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:21" customFormat="1" ht="31.25" hidden="1" customHeight="1">
+    <row r="2" spans="1:21" customFormat="1" ht="31.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="63">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>40</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="34" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:21" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>83765454</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>49</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>44</v>
@@ -1653,7 +1665,7 @@
         <v>23445</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1669,7 +1681,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1685,7 +1697,7 @@
       <c r="M6" s="36"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1701,7 +1713,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1717,7 +1729,7 @@
       <c r="M8" s="36"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1733,7 +1745,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1749,7 +1761,7 @@
       <c r="M10" s="36"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1765,7 +1777,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1781,7 +1793,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1797,7 +1809,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1813,7 +1825,7 @@
       <c r="M14" s="36"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1829,7 +1841,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1845,7 +1857,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1862,7 +1874,7 @@
       <c r="N17" s="8"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1878,7 +1890,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1894,7 +1906,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1910,7 +1922,7 @@
       <c r="M20" s="24"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1926,7 +1938,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1942,7 +1954,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1958,7 +1970,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1974,7 +1986,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1990,7 +2002,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2006,7 +2018,7 @@
       <c r="M26" s="24"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2022,7 +2034,7 @@
       <c r="M27" s="24"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2038,7 +2050,7 @@
       <c r="M28" s="24"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2054,7 +2066,7 @@
       <c r="M29" s="24"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2070,7 +2082,7 @@
       <c r="M30" s="24"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2086,7 +2098,7 @@
       <c r="M31" s="24"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2102,7 +2114,7 @@
       <c r="M32" s="24"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2118,7 +2130,7 @@
       <c r="M33" s="24"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2134,7 +2146,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2150,7 +2162,7 @@
       <c r="M35" s="24"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2166,7 +2178,7 @@
       <c r="M36" s="24"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2182,7 +2194,7 @@
       <c r="M37" s="24"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2198,7 +2210,7 @@
       <c r="M38" s="24"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2214,7 +2226,7 @@
       <c r="M39" s="24"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2230,7 +2242,7 @@
       <c r="M40" s="24"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2246,7 +2258,7 @@
       <c r="M41" s="24"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2262,7 +2274,7 @@
       <c r="M42" s="24"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2278,7 +2290,7 @@
       <c r="M43" s="24"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2294,7 +2306,7 @@
       <c r="M44" s="24"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2310,7 +2322,7 @@
       <c r="M45" s="24"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2326,7 +2338,7 @@
       <c r="M46" s="24"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2342,7 +2354,7 @@
       <c r="M47" s="24"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2358,7 +2370,7 @@
       <c r="M48" s="24"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2375,7 +2387,7 @@
       <c r="N49" s="8"/>
       <c r="U49" s="37"/>
     </row>
-    <row r="50" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2391,7 +2403,7 @@
       <c r="M50" s="24"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2407,7 +2419,7 @@
       <c r="M51" s="24"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2423,7 +2435,7 @@
       <c r="M52" s="24"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2439,7 +2451,7 @@
       <c r="M53" s="24"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2455,7 +2467,7 @@
       <c r="M54" s="24"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2471,7 +2483,7 @@
       <c r="M55" s="24"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2487,7 +2499,7 @@
       <c r="M56" s="24"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2503,7 +2515,7 @@
       <c r="M57" s="24"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2519,7 +2531,7 @@
       <c r="M58" s="24"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2534,7 +2546,7 @@
       <c r="M59" s="24"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2550,7 +2562,7 @@
       <c r="M60" s="24"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2566,7 +2578,7 @@
       <c r="M61" s="24"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2582,7 +2594,7 @@
       <c r="M62" s="24"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2598,7 +2610,7 @@
       <c r="M63" s="24"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2614,7 +2626,7 @@
       <c r="M64" s="24"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2630,7 +2642,7 @@
       <c r="M65" s="24"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2646,7 +2658,7 @@
       <c r="M66" s="24"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2662,7 +2674,7 @@
       <c r="M67" s="24"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2678,7 +2690,7 @@
       <c r="M68" s="24"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2694,7 +2706,7 @@
       <c r="M69" s="24"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2710,7 +2722,7 @@
       <c r="M70" s="24"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2726,7 +2738,7 @@
       <c r="M71" s="24"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2742,7 +2754,7 @@
       <c r="M72" s="24"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2758,7 +2770,7 @@
       <c r="M73" s="24"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2774,7 +2786,7 @@
       <c r="M74" s="24"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2790,7 +2802,7 @@
       <c r="M75" s="24"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2806,7 +2818,7 @@
       <c r="M76" s="24"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2822,7 +2834,7 @@
       <c r="M77" s="24"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2838,7 +2850,7 @@
       <c r="M78" s="24"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2854,7 +2866,7 @@
       <c r="M79" s="24"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2870,7 +2882,7 @@
       <c r="M80" s="24"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2886,7 +2898,7 @@
       <c r="M81" s="24"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2902,7 +2914,7 @@
       <c r="M82" s="24"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2918,7 +2930,7 @@
       <c r="M83" s="24"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2934,7 +2946,7 @@
       <c r="M84" s="24"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2950,7 +2962,7 @@
       <c r="M85" s="24"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2966,7 +2978,7 @@
       <c r="M86" s="24"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2982,7 +2994,7 @@
       <c r="M87" s="24"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2998,7 +3010,7 @@
       <c r="M88" s="24"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3014,7 +3026,7 @@
       <c r="M89" s="24"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3030,7 +3042,7 @@
       <c r="M90" s="24"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3046,7 +3058,7 @@
       <c r="M91" s="24"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3062,7 +3074,7 @@
       <c r="M92" s="24"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3078,7 +3090,7 @@
       <c r="M93" s="24"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3094,7 +3106,7 @@
       <c r="M94" s="24"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3110,7 +3122,7 @@
       <c r="M95" s="24"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3126,7 +3138,7 @@
       <c r="M96" s="24"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3142,7 +3154,7 @@
       <c r="M97" s="24"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3158,7 +3170,7 @@
       <c r="M98" s="24"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3174,7 +3186,7 @@
       <c r="M99" s="24"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3190,7 +3202,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3206,7 +3218,7 @@
       <c r="M101" s="24"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3222,7 +3234,7 @@
       <c r="M102" s="24"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3238,7 +3250,7 @@
       <c r="M103" s="24"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3254,7 +3266,7 @@
       <c r="M104" s="24"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3270,7 +3282,7 @@
       <c r="M105" s="24"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3286,7 +3298,7 @@
       <c r="M106" s="24"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3302,7 +3314,7 @@
       <c r="M107" s="24"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3318,7 +3330,7 @@
       <c r="M108" s="24"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3334,7 +3346,7 @@
       <c r="M109" s="24"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3350,7 +3362,7 @@
       <c r="M110" s="24"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3366,7 +3378,7 @@
       <c r="M111" s="24"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3382,7 +3394,7 @@
       <c r="M112" s="24"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3398,7 +3410,7 @@
       <c r="M113" s="24"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3414,7 +3426,7 @@
       <c r="M114" s="24"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3430,7 +3442,7 @@
       <c r="M115" s="24"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3446,7 +3458,7 @@
       <c r="M116" s="24"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3462,7 +3474,7 @@
       <c r="M117" s="24"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3478,7 +3490,7 @@
       <c r="M118" s="24"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3494,7 +3506,7 @@
       <c r="M119" s="24"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3510,7 +3522,7 @@
       <c r="M120" s="24"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3526,7 +3538,7 @@
       <c r="M121" s="24"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3542,7 +3554,7 @@
       <c r="M122" s="24"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3558,7 +3570,7 @@
       <c r="M123" s="24"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="124" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3574,7 +3586,7 @@
       <c r="M124" s="24"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3590,7 +3602,7 @@
       <c r="M125" s="24"/>
       <c r="N125" s="8"/>
     </row>
-    <row r="126" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3606,7 +3618,7 @@
       <c r="M126" s="24"/>
       <c r="N126" s="8"/>
     </row>
-    <row r="127" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3622,7 +3634,7 @@
       <c r="M127" s="24"/>
       <c r="N127" s="8"/>
     </row>
-    <row r="128" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3638,7 +3650,7 @@
       <c r="M128" s="24"/>
       <c r="N128" s="8"/>
     </row>
-    <row r="129" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3654,7 +3666,7 @@
       <c r="M129" s="24"/>
       <c r="N129" s="8"/>
     </row>
-    <row r="130" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3670,7 +3682,7 @@
       <c r="M130" s="24"/>
       <c r="N130" s="8"/>
     </row>
-    <row r="131" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3686,7 +3698,7 @@
       <c r="M131" s="24"/>
       <c r="N131" s="8"/>
     </row>
-    <row r="132" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3702,7 +3714,7 @@
       <c r="M132" s="24"/>
       <c r="N132" s="8"/>
     </row>
-    <row r="133" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3718,7 +3730,7 @@
       <c r="M133" s="24"/>
       <c r="N133" s="8"/>
     </row>
-    <row r="134" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3734,7 +3746,7 @@
       <c r="M134" s="24"/>
       <c r="N134" s="8"/>
     </row>
-    <row r="135" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3750,7 +3762,7 @@
       <c r="M135" s="24"/>
       <c r="N135" s="8"/>
     </row>
-    <row r="136" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3766,7 +3778,7 @@
       <c r="M136" s="24"/>
       <c r="N136" s="8"/>
     </row>
-    <row r="137" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3782,7 +3794,7 @@
       <c r="M137" s="24"/>
       <c r="N137" s="8"/>
     </row>
-    <row r="138" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3798,7 +3810,7 @@
       <c r="M138" s="24"/>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3814,7 +3826,7 @@
       <c r="M139" s="24"/>
       <c r="N139" s="8"/>
     </row>
-    <row r="140" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3830,7 +3842,7 @@
       <c r="M140" s="24"/>
       <c r="N140" s="8"/>
     </row>
-    <row r="141" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3846,7 +3858,7 @@
       <c r="M141" s="24"/>
       <c r="N141" s="8"/>
     </row>
-    <row r="142" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3862,7 +3874,7 @@
       <c r="M142" s="24"/>
       <c r="N142" s="8"/>
     </row>
-    <row r="143" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3878,7 +3890,7 @@
       <c r="M143" s="24"/>
       <c r="N143" s="8"/>
     </row>
-    <row r="144" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3894,7 +3906,7 @@
       <c r="M144" s="24"/>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3910,7 +3922,7 @@
       <c r="M145" s="24"/>
       <c r="N145" s="8"/>
     </row>
-    <row r="146" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3926,7 +3938,7 @@
       <c r="M146" s="24"/>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3942,7 +3954,7 @@
       <c r="M147" s="24"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3958,7 +3970,7 @@
       <c r="M148" s="24"/>
       <c r="N148" s="8"/>
     </row>
-    <row r="149" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3974,7 +3986,7 @@
       <c r="M149" s="24"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3990,7 +4002,7 @@
       <c r="M150" s="24"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4006,7 +4018,7 @@
       <c r="M151" s="24"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4022,7 +4034,7 @@
       <c r="M152" s="24"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4038,7 +4050,7 @@
       <c r="M153" s="24"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4054,7 +4066,7 @@
       <c r="M154" s="24"/>
       <c r="N154" s="8"/>
     </row>
-    <row r="155" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4070,7 +4082,7 @@
       <c r="M155" s="24"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4086,7 +4098,7 @@
       <c r="M156" s="24"/>
       <c r="N156" s="8"/>
     </row>
-    <row r="157" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4102,7 +4114,7 @@
       <c r="M157" s="24"/>
       <c r="N157" s="8"/>
     </row>
-    <row r="158" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4118,7 +4130,7 @@
       <c r="M158" s="24"/>
       <c r="N158" s="8"/>
     </row>
-    <row r="159" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4134,7 +4146,7 @@
       <c r="M159" s="24"/>
       <c r="N159" s="8"/>
     </row>
-    <row r="160" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4150,7 +4162,7 @@
       <c r="M160" s="24"/>
       <c r="N160" s="8"/>
     </row>
-    <row r="161" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="161" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4166,7 +4178,7 @@
       <c r="M161" s="24"/>
       <c r="N161" s="8"/>
     </row>
-    <row r="162" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="162" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4182,7 +4194,7 @@
       <c r="M162" s="24"/>
       <c r="N162" s="8"/>
     </row>
-    <row r="163" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="163" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4198,7 +4210,7 @@
       <c r="M163" s="24"/>
       <c r="N163" s="8"/>
     </row>
-    <row r="164" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="164" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4214,7 +4226,7 @@
       <c r="M164" s="24"/>
       <c r="N164" s="8"/>
     </row>
-    <row r="165" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="165" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4230,7 +4242,7 @@
       <c r="M165" s="24"/>
       <c r="N165" s="8"/>
     </row>
-    <row r="166" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4246,7 +4258,7 @@
       <c r="M166" s="24"/>
       <c r="N166" s="8"/>
     </row>
-    <row r="167" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4262,7 +4274,7 @@
       <c r="M167" s="24"/>
       <c r="N167" s="8"/>
     </row>
-    <row r="168" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4278,7 +4290,7 @@
       <c r="M168" s="24"/>
       <c r="N168" s="8"/>
     </row>
-    <row r="169" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4294,7 +4306,7 @@
       <c r="M169" s="24"/>
       <c r="N169" s="8"/>
     </row>
-    <row r="170" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4310,7 +4322,7 @@
       <c r="M170" s="24"/>
       <c r="N170" s="8"/>
     </row>
-    <row r="171" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4326,7 +4338,7 @@
       <c r="M171" s="24"/>
       <c r="N171" s="8"/>
     </row>
-    <row r="172" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4342,7 +4354,7 @@
       <c r="M172" s="24"/>
       <c r="N172" s="8"/>
     </row>
-    <row r="173" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4358,7 +4370,7 @@
       <c r="M173" s="24"/>
       <c r="N173" s="8"/>
     </row>
-    <row r="174" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4374,7 +4386,7 @@
       <c r="M174" s="24"/>
       <c r="N174" s="8"/>
     </row>
-    <row r="175" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4390,7 +4402,7 @@
       <c r="M175" s="24"/>
       <c r="N175" s="8"/>
     </row>
-    <row r="176" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4406,7 +4418,7 @@
       <c r="M176" s="24"/>
       <c r="N176" s="8"/>
     </row>
-    <row r="177" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4422,7 +4434,7 @@
       <c r="M177" s="24"/>
       <c r="N177" s="8"/>
     </row>
-    <row r="178" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4438,7 +4450,7 @@
       <c r="M178" s="24"/>
       <c r="N178" s="8"/>
     </row>
-    <row r="179" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4454,7 +4466,7 @@
       <c r="M179" s="24"/>
       <c r="N179" s="8"/>
     </row>
-    <row r="180" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="180" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4470,7 +4482,7 @@
       <c r="M180" s="24"/>
       <c r="N180" s="8"/>
     </row>
-    <row r="181" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4486,7 +4498,7 @@
       <c r="M181" s="24"/>
       <c r="N181" s="8"/>
     </row>
-    <row r="182" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4502,7 +4514,7 @@
       <c r="M182" s="24"/>
       <c r="N182" s="8"/>
     </row>
-    <row r="183" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4518,7 +4530,7 @@
       <c r="M183" s="24"/>
       <c r="N183" s="8"/>
     </row>
-    <row r="184" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4534,7 +4546,7 @@
       <c r="M184" s="24"/>
       <c r="N184" s="8"/>
     </row>
-    <row r="185" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="185" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4550,7 +4562,7 @@
       <c r="M185" s="24"/>
       <c r="N185" s="8"/>
     </row>
-    <row r="186" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="186" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4566,7 +4578,7 @@
       <c r="M186" s="24"/>
       <c r="N186" s="8"/>
     </row>
-    <row r="187" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4582,7 +4594,7 @@
       <c r="M187" s="24"/>
       <c r="N187" s="8"/>
     </row>
-    <row r="188" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4598,7 +4610,7 @@
       <c r="M188" s="24"/>
       <c r="N188" s="8"/>
     </row>
-    <row r="189" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4614,7 +4626,7 @@
       <c r="M189" s="24"/>
       <c r="N189" s="8"/>
     </row>
-    <row r="190" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4630,7 +4642,7 @@
       <c r="M190" s="24"/>
       <c r="N190" s="8"/>
     </row>
-    <row r="191" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4646,7 +4658,7 @@
       <c r="M191" s="24"/>
       <c r="N191" s="8"/>
     </row>
-    <row r="192" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4662,7 +4674,7 @@
       <c r="M192" s="24"/>
       <c r="N192" s="8"/>
     </row>
-    <row r="193" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4678,7 +4690,7 @@
       <c r="M193" s="24"/>
       <c r="N193" s="8"/>
     </row>
-    <row r="194" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4694,7 +4706,7 @@
       <c r="M194" s="24"/>
       <c r="N194" s="8"/>
     </row>
-    <row r="195" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4710,7 +4722,7 @@
       <c r="M195" s="24"/>
       <c r="N195" s="8"/>
     </row>
-    <row r="196" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4726,7 +4738,7 @@
       <c r="M196" s="24"/>
       <c r="N196" s="8"/>
     </row>
-    <row r="197" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4742,7 +4754,7 @@
       <c r="M197" s="24"/>
       <c r="N197" s="8"/>
     </row>
-    <row r="198" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4758,7 +4770,7 @@
       <c r="M198" s="24"/>
       <c r="N198" s="8"/>
     </row>
-    <row r="199" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4774,7 +4786,7 @@
       <c r="M199" s="24"/>
       <c r="N199" s="8"/>
     </row>
-    <row r="200" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4790,7 +4802,7 @@
       <c r="M200" s="24"/>
       <c r="N200" s="8"/>
     </row>
-    <row r="201" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4806,7 +4818,7 @@
       <c r="M201" s="24"/>
       <c r="N201" s="8"/>
     </row>
-    <row r="202" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="202" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4822,7 +4834,7 @@
       <c r="M202" s="24"/>
       <c r="N202" s="8"/>
     </row>
-    <row r="203" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4838,7 +4850,7 @@
       <c r="M203" s="24"/>
       <c r="N203" s="8"/>
     </row>
-    <row r="204" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="204" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4854,7 +4866,7 @@
       <c r="M204" s="24"/>
       <c r="N204" s="8"/>
     </row>
-    <row r="205" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="205" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4870,7 +4882,7 @@
       <c r="M205" s="24"/>
       <c r="N205" s="8"/>
     </row>
-    <row r="206" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="206" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4886,7 +4898,7 @@
       <c r="M206" s="24"/>
       <c r="N206" s="8"/>
     </row>
-    <row r="207" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4902,7 +4914,7 @@
       <c r="M207" s="24"/>
       <c r="N207" s="8"/>
     </row>
-    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4918,7 +4930,7 @@
       <c r="M208" s="24"/>
       <c r="N208" s="8"/>
     </row>
-    <row r="209" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="209" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4934,7 +4946,7 @@
       <c r="M209" s="24"/>
       <c r="N209" s="8"/>
     </row>
-    <row r="210" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="210" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4950,7 +4962,7 @@
       <c r="M210" s="24"/>
       <c r="N210" s="8"/>
     </row>
-    <row r="211" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="211" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4966,7 +4978,7 @@
       <c r="M211" s="24"/>
       <c r="N211" s="8"/>
     </row>
-    <row r="212" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="212" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4982,7 +4994,7 @@
       <c r="M212" s="24"/>
       <c r="N212" s="8"/>
     </row>
-    <row r="213" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="213" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4998,7 +5010,7 @@
       <c r="M213" s="24"/>
       <c r="N213" s="8"/>
     </row>
-    <row r="214" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="214" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -5014,7 +5026,7 @@
       <c r="M214" s="24"/>
       <c r="N214" s="8"/>
     </row>
-    <row r="215" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="215" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -5030,7 +5042,7 @@
       <c r="M215" s="24"/>
       <c r="N215" s="8"/>
     </row>
-    <row r="216" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="216" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -5046,7 +5058,7 @@
       <c r="M216" s="24"/>
       <c r="N216" s="8"/>
     </row>
-    <row r="217" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="217" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -5062,7 +5074,7 @@
       <c r="M217" s="24"/>
       <c r="N217" s="8"/>
     </row>
-    <row r="218" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -5078,7 +5090,7 @@
       <c r="M218" s="24"/>
       <c r="N218" s="8"/>
     </row>
-    <row r="219" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -5094,7 +5106,7 @@
       <c r="M219" s="24"/>
       <c r="N219" s="8"/>
     </row>
-    <row r="220" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="220" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -5110,7 +5122,7 @@
       <c r="M220" s="24"/>
       <c r="N220" s="8"/>
     </row>
-    <row r="221" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="221" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -5126,7 +5138,7 @@
       <c r="M221" s="24"/>
       <c r="N221" s="8"/>
     </row>
-    <row r="222" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="222" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -5142,7 +5154,7 @@
       <c r="M222" s="24"/>
       <c r="N222" s="8"/>
     </row>
-    <row r="223" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="223" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -5158,7 +5170,7 @@
       <c r="M223" s="24"/>
       <c r="N223" s="8"/>
     </row>
-    <row r="224" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="224" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5174,7 +5186,7 @@
       <c r="M224" s="24"/>
       <c r="N224" s="8"/>
     </row>
-    <row r="225" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="225" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -5190,7 +5202,7 @@
       <c r="M225" s="24"/>
       <c r="N225" s="8"/>
     </row>
-    <row r="226" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="226" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -5206,7 +5218,7 @@
       <c r="M226" s="24"/>
       <c r="N226" s="8"/>
     </row>
-    <row r="227" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="227" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -5222,7 +5234,7 @@
       <c r="M227" s="24"/>
       <c r="N227" s="8"/>
     </row>
-    <row r="228" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="228" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -5238,7 +5250,7 @@
       <c r="M228" s="24"/>
       <c r="N228" s="8"/>
     </row>
-    <row r="229" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="229" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -5254,7 +5266,7 @@
       <c r="M229" s="24"/>
       <c r="N229" s="8"/>
     </row>
-    <row r="230" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="230" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -5270,7 +5282,7 @@
       <c r="M230" s="24"/>
       <c r="N230" s="8"/>
     </row>
-    <row r="231" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="231" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -5286,7 +5298,7 @@
       <c r="M231" s="24"/>
       <c r="N231" s="8"/>
     </row>
-    <row r="232" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="232" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -5302,7 +5314,7 @@
       <c r="M232" s="24"/>
       <c r="N232" s="8"/>
     </row>
-    <row r="233" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="233" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -5318,7 +5330,7 @@
       <c r="M233" s="24"/>
       <c r="N233" s="8"/>
     </row>
-    <row r="234" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="234" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -5334,7 +5346,7 @@
       <c r="M234" s="24"/>
       <c r="N234" s="8"/>
     </row>
-    <row r="235" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="235" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -5350,7 +5362,7 @@
       <c r="M235" s="24"/>
       <c r="N235" s="8"/>
     </row>
-    <row r="236" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="236" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -5366,7 +5378,7 @@
       <c r="M236" s="24"/>
       <c r="N236" s="8"/>
     </row>
-    <row r="237" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="237" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -5382,7 +5394,7 @@
       <c r="M237" s="24"/>
       <c r="N237" s="8"/>
     </row>
-    <row r="238" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="238" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5398,7 +5410,7 @@
       <c r="M238" s="24"/>
       <c r="N238" s="8"/>
     </row>
-    <row r="239" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="239" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5414,7 +5426,7 @@
       <c r="M239" s="24"/>
       <c r="N239" s="8"/>
     </row>
-    <row r="240" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="240" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -5437,7 +5449,7 @@
       <c r="T240" s="14"/>
       <c r="U240" s="14"/>
     </row>
-    <row r="241" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="241" spans="1:21" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -5460,7 +5472,7 @@
       <c r="T241" s="14"/>
       <c r="U241" s="14"/>
     </row>
-    <row r="242" spans="1:21" ht="15" customHeight="1">
+    <row r="242" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -5476,7 +5488,7 @@
       <c r="M242" s="25"/>
       <c r="N242" s="8"/>
     </row>
-    <row r="243" spans="1:21" ht="15" customHeight="1">
+    <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -5492,7 +5504,7 @@
       <c r="M243" s="25"/>
       <c r="N243" s="8"/>
     </row>
-    <row r="244" spans="1:21" ht="15" customHeight="1">
+    <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -5508,7 +5520,7 @@
       <c r="M244" s="25"/>
       <c r="N244" s="8"/>
     </row>
-    <row r="245" spans="1:21" ht="15" customHeight="1">
+    <row r="245" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -5524,7 +5536,7 @@
       <c r="M245" s="25"/>
       <c r="N245" s="8"/>
     </row>
-    <row r="246" spans="1:21" ht="15" customHeight="1">
+    <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -5540,7 +5552,7 @@
       <c r="M246" s="25"/>
       <c r="N246" s="8"/>
     </row>
-    <row r="247" spans="1:21" ht="15" customHeight="1">
+    <row r="247" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -5556,7 +5568,7 @@
       <c r="M247" s="25"/>
       <c r="N247" s="8"/>
     </row>
-    <row r="248" spans="1:21" ht="15" customHeight="1">
+    <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5572,7 +5584,7 @@
       <c r="M248" s="25"/>
       <c r="N248" s="8"/>
     </row>
-    <row r="249" spans="1:21" ht="15" customHeight="1">
+    <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -5588,7 +5600,7 @@
       <c r="M249" s="25"/>
       <c r="N249" s="8"/>
     </row>
-    <row r="250" spans="1:21" ht="15" customHeight="1">
+    <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -5604,7 +5616,7 @@
       <c r="M250" s="25"/>
       <c r="N250" s="8"/>
     </row>
-    <row r="251" spans="1:21" ht="15" customHeight="1">
+    <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -5620,7 +5632,7 @@
       <c r="M251" s="25"/>
       <c r="N251" s="8"/>
     </row>
-    <row r="252" spans="1:21" ht="15" customHeight="1">
+    <row r="252" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -5636,7 +5648,7 @@
       <c r="M252" s="25"/>
       <c r="N252" s="8"/>
     </row>
-    <row r="253" spans="1:21" ht="15" customHeight="1">
+    <row r="253" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -5652,7 +5664,7 @@
       <c r="M253" s="25"/>
       <c r="N253" s="8"/>
     </row>
-    <row r="254" spans="1:21" ht="15" customHeight="1">
+    <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -5668,7 +5680,7 @@
       <c r="M254" s="25"/>
       <c r="N254" s="8"/>
     </row>
-    <row r="255" spans="1:21" ht="15" customHeight="1">
+    <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -5684,7 +5696,7 @@
       <c r="M255" s="25"/>
       <c r="N255" s="8"/>
     </row>
-    <row r="256" spans="1:21" ht="15" customHeight="1">
+    <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -5700,7 +5712,7 @@
       <c r="M256" s="25"/>
       <c r="N256" s="8"/>
     </row>
-    <row r="257" spans="1:14" ht="15" customHeight="1">
+    <row r="257" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -5716,7 +5728,7 @@
       <c r="M257" s="25"/>
       <c r="N257" s="8"/>
     </row>
-    <row r="258" spans="1:14" ht="15" customHeight="1">
+    <row r="258" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -5732,7 +5744,7 @@
       <c r="M258" s="25"/>
       <c r="N258" s="8"/>
     </row>
-    <row r="259" spans="1:14" ht="15" customHeight="1">
+    <row r="259" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -5748,7 +5760,7 @@
       <c r="M259" s="25"/>
       <c r="N259" s="8"/>
     </row>
-    <row r="260" spans="1:14" ht="15" customHeight="1">
+    <row r="260" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -5764,7 +5776,7 @@
       <c r="M260" s="25"/>
       <c r="N260" s="8"/>
     </row>
-    <row r="261" spans="1:14" ht="15" customHeight="1">
+    <row r="261" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -5780,7 +5792,7 @@
       <c r="M261" s="25"/>
       <c r="N261" s="8"/>
     </row>
-    <row r="262" spans="1:14" ht="15" customHeight="1">
+    <row r="262" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -5796,7 +5808,7 @@
       <c r="M262" s="25"/>
       <c r="N262" s="8"/>
     </row>
-    <row r="263" spans="1:14" ht="15" customHeight="1">
+    <row r="263" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -5812,7 +5824,7 @@
       <c r="M263" s="25"/>
       <c r="N263" s="8"/>
     </row>
-    <row r="264" spans="1:14" ht="15" customHeight="1">
+    <row r="264" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -5828,7 +5840,7 @@
       <c r="M264" s="25"/>
       <c r="N264" s="8"/>
     </row>
-    <row r="265" spans="1:14" ht="15" customHeight="1">
+    <row r="265" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -5844,7 +5856,7 @@
       <c r="M265" s="25"/>
       <c r="N265" s="8"/>
     </row>
-    <row r="266" spans="1:14" ht="15" customHeight="1">
+    <row r="266" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -5860,7 +5872,7 @@
       <c r="M266" s="25"/>
       <c r="N266" s="8"/>
     </row>
-    <row r="267" spans="1:14" ht="15" customHeight="1">
+    <row r="267" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -5876,7 +5888,7 @@
       <c r="M267" s="25"/>
       <c r="N267" s="8"/>
     </row>
-    <row r="268" spans="1:14" ht="15" customHeight="1">
+    <row r="268" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -5892,7 +5904,7 @@
       <c r="M268" s="25"/>
       <c r="N268" s="8"/>
     </row>
-    <row r="269" spans="1:14" ht="15" customHeight="1">
+    <row r="269" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -5908,7 +5920,7 @@
       <c r="M269" s="25"/>
       <c r="N269" s="8"/>
     </row>
-    <row r="270" spans="1:14" ht="15" customHeight="1">
+    <row r="270" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -5924,7 +5936,7 @@
       <c r="M270" s="25"/>
       <c r="N270" s="8"/>
     </row>
-    <row r="271" spans="1:14" ht="15" customHeight="1">
+    <row r="271" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -5940,7 +5952,7 @@
       <c r="M271" s="25"/>
       <c r="N271" s="8"/>
     </row>
-    <row r="272" spans="1:14" ht="15" customHeight="1">
+    <row r="272" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -5956,7 +5968,7 @@
       <c r="M272" s="25"/>
       <c r="N272" s="8"/>
     </row>
-    <row r="273" spans="1:14" ht="15" customHeight="1">
+    <row r="273" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -5972,7 +5984,7 @@
       <c r="M273" s="25"/>
       <c r="N273" s="8"/>
     </row>
-    <row r="274" spans="1:14" ht="15" customHeight="1">
+    <row r="274" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -5988,7 +6000,7 @@
       <c r="M274" s="25"/>
       <c r="N274" s="8"/>
     </row>
-    <row r="275" spans="1:14" ht="15" customHeight="1">
+    <row r="275" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -6004,7 +6016,7 @@
       <c r="M275" s="25"/>
       <c r="N275" s="8"/>
     </row>
-    <row r="276" spans="1:14" ht="15" customHeight="1">
+    <row r="276" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -6020,7 +6032,7 @@
       <c r="M276" s="25"/>
       <c r="N276" s="8"/>
     </row>
-    <row r="277" spans="1:14" ht="15" customHeight="1">
+    <row r="277" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -6036,7 +6048,7 @@
       <c r="M277" s="25"/>
       <c r="N277" s="8"/>
     </row>
-    <row r="278" spans="1:14" ht="15" customHeight="1">
+    <row r="278" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -6052,7 +6064,7 @@
       <c r="M278" s="25"/>
       <c r="N278" s="8"/>
     </row>
-    <row r="279" spans="1:14" ht="15" customHeight="1">
+    <row r="279" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -6068,7 +6080,7 @@
       <c r="M279" s="25"/>
       <c r="N279" s="8"/>
     </row>
-    <row r="280" spans="1:14" ht="15" customHeight="1">
+    <row r="280" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -6084,7 +6096,7 @@
       <c r="M280" s="25"/>
       <c r="N280" s="8"/>
     </row>
-    <row r="281" spans="1:14" ht="15" customHeight="1">
+    <row r="281" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -6100,7 +6112,7 @@
       <c r="M281" s="25"/>
       <c r="N281" s="8"/>
     </row>
-    <row r="282" spans="1:14" ht="15" customHeight="1">
+    <row r="282" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -6116,7 +6128,7 @@
       <c r="M282" s="25"/>
       <c r="N282" s="8"/>
     </row>
-    <row r="283" spans="1:14" ht="15" customHeight="1">
+    <row r="283" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -6132,7 +6144,7 @@
       <c r="M283" s="25"/>
       <c r="N283" s="8"/>
     </row>
-    <row r="284" spans="1:14" ht="15" customHeight="1">
+    <row r="284" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -6148,7 +6160,7 @@
       <c r="M284" s="25"/>
       <c r="N284" s="8"/>
     </row>
-    <row r="285" spans="1:14" ht="15" customHeight="1">
+    <row r="285" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -6164,7 +6176,7 @@
       <c r="M285" s="25"/>
       <c r="N285" s="8"/>
     </row>
-    <row r="286" spans="1:14" ht="15" customHeight="1">
+    <row r="286" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -6180,7 +6192,7 @@
       <c r="M286" s="25"/>
       <c r="N286" s="8"/>
     </row>
-    <row r="287" spans="1:14" ht="15" customHeight="1">
+    <row r="287" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -6196,7 +6208,7 @@
       <c r="M287" s="25"/>
       <c r="N287" s="8"/>
     </row>
-    <row r="288" spans="1:14" ht="15" customHeight="1">
+    <row r="288" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -6212,7 +6224,7 @@
       <c r="M288" s="25"/>
       <c r="N288" s="8"/>
     </row>
-    <row r="289" spans="1:14" ht="15" customHeight="1">
+    <row r="289" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -6228,7 +6240,7 @@
       <c r="M289" s="25"/>
       <c r="N289" s="8"/>
     </row>
-    <row r="290" spans="1:14" ht="15" customHeight="1">
+    <row r="290" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -6244,7 +6256,7 @@
       <c r="M290" s="25"/>
       <c r="N290" s="8"/>
     </row>
-    <row r="291" spans="1:14" ht="15" customHeight="1">
+    <row r="291" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -6260,7 +6272,7 @@
       <c r="M291" s="25"/>
       <c r="N291" s="8"/>
     </row>
-    <row r="292" spans="1:14" ht="15" customHeight="1">
+    <row r="292" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -6276,7 +6288,7 @@
       <c r="M292" s="25"/>
       <c r="N292" s="8"/>
     </row>
-    <row r="293" spans="1:14" ht="15" customHeight="1">
+    <row r="293" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -6292,7 +6304,7 @@
       <c r="M293" s="25"/>
       <c r="N293" s="8"/>
     </row>
-    <row r="294" spans="1:14" ht="15" customHeight="1">
+    <row r="294" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
@@ -6308,7 +6320,7 @@
       <c r="M294" s="25"/>
       <c r="N294" s="8"/>
     </row>
-    <row r="295" spans="1:14" ht="15" customHeight="1">
+    <row r="295" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -6324,7 +6336,7 @@
       <c r="M295" s="25"/>
       <c r="N295" s="8"/>
     </row>
-    <row r="296" spans="1:14" ht="15" customHeight="1">
+    <row r="296" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -6340,7 +6352,7 @@
       <c r="M296" s="25"/>
       <c r="N296" s="8"/>
     </row>
-    <row r="297" spans="1:14" ht="15" customHeight="1">
+    <row r="297" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -6356,7 +6368,7 @@
       <c r="M297" s="25"/>
       <c r="N297" s="8"/>
     </row>
-    <row r="298" spans="1:14" ht="15" customHeight="1">
+    <row r="298" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -6372,7 +6384,7 @@
       <c r="M298" s="25"/>
       <c r="N298" s="8"/>
     </row>
-    <row r="299" spans="1:14" ht="15" customHeight="1">
+    <row r="299" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -6388,334 +6400,334 @@
       <c r="M299" s="25"/>
       <c r="N299" s="8"/>
     </row>
-    <row r="300" spans="1:14" ht="15" customHeight="1">
+    <row r="300" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N300" s="8"/>
     </row>
-    <row r="301" spans="1:14" ht="15" customHeight="1">
+    <row r="301" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N301" s="8"/>
     </row>
-    <row r="302" spans="1:14" ht="15" customHeight="1">
+    <row r="302" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N302" s="8"/>
     </row>
-    <row r="303" spans="1:14" ht="15" customHeight="1">
+    <row r="303" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N303" s="8"/>
     </row>
-    <row r="304" spans="1:14" ht="15" customHeight="1">
+    <row r="304" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N304" s="8"/>
     </row>
-    <row r="305" spans="14:14" ht="15" customHeight="1">
+    <row r="305" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N305" s="8"/>
     </row>
-    <row r="306" spans="14:14" ht="15" customHeight="1">
+    <row r="306" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N306" s="8"/>
     </row>
-    <row r="307" spans="14:14" ht="15" customHeight="1">
+    <row r="307" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N307" s="8"/>
     </row>
-    <row r="308" spans="14:14" ht="15" customHeight="1">
+    <row r="308" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N308" s="8"/>
     </row>
-    <row r="309" spans="14:14" ht="15" customHeight="1">
+    <row r="309" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N309" s="8"/>
     </row>
-    <row r="310" spans="14:14" ht="15" customHeight="1">
+    <row r="310" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N310" s="8"/>
     </row>
-    <row r="311" spans="14:14" ht="15" customHeight="1">
+    <row r="311" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N311" s="8"/>
     </row>
-    <row r="312" spans="14:14" ht="15" customHeight="1">
+    <row r="312" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N312" s="8"/>
     </row>
-    <row r="313" spans="14:14" ht="15" customHeight="1">
+    <row r="313" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N313" s="8"/>
     </row>
-    <row r="314" spans="14:14" ht="15" customHeight="1">
+    <row r="314" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N314" s="8"/>
     </row>
-    <row r="315" spans="14:14" ht="15" customHeight="1">
+    <row r="315" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N315" s="8"/>
     </row>
-    <row r="316" spans="14:14" ht="15" customHeight="1">
+    <row r="316" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N316" s="8"/>
     </row>
-    <row r="317" spans="14:14" ht="15" customHeight="1">
+    <row r="317" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N317" s="8"/>
     </row>
-    <row r="318" spans="14:14" ht="15" customHeight="1">
+    <row r="318" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N318" s="8"/>
     </row>
-    <row r="319" spans="14:14" ht="15" customHeight="1">
+    <row r="319" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N319" s="8"/>
     </row>
-    <row r="320" spans="14:14" ht="15" customHeight="1">
+    <row r="320" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N320" s="8"/>
     </row>
-    <row r="321" spans="14:14" ht="15" customHeight="1">
+    <row r="321" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N321" s="8"/>
     </row>
-    <row r="322" spans="14:14" ht="15" customHeight="1">
+    <row r="322" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N322" s="8"/>
     </row>
-    <row r="323" spans="14:14" ht="15" customHeight="1">
+    <row r="323" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N323" s="8"/>
     </row>
-    <row r="324" spans="14:14" ht="15" customHeight="1">
+    <row r="324" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N324" s="8"/>
     </row>
-    <row r="325" spans="14:14" ht="15" customHeight="1">
+    <row r="325" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N325" s="8"/>
     </row>
-    <row r="326" spans="14:14" ht="15" customHeight="1">
+    <row r="326" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N326" s="8"/>
     </row>
-    <row r="327" spans="14:14" ht="15" customHeight="1">
+    <row r="327" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N327" s="8"/>
     </row>
-    <row r="328" spans="14:14" ht="15" customHeight="1">
+    <row r="328" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N328" s="8"/>
     </row>
-    <row r="329" spans="14:14" ht="15" customHeight="1">
+    <row r="329" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N329" s="8"/>
     </row>
-    <row r="330" spans="14:14" ht="15" customHeight="1">
+    <row r="330" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N330" s="8"/>
     </row>
-    <row r="331" spans="14:14" ht="15" customHeight="1">
+    <row r="331" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N331" s="8"/>
     </row>
-    <row r="332" spans="14:14" ht="15" customHeight="1">
+    <row r="332" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N332" s="8"/>
     </row>
-    <row r="333" spans="14:14" ht="15" customHeight="1">
+    <row r="333" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N333" s="8"/>
     </row>
-    <row r="334" spans="14:14" ht="15" customHeight="1">
+    <row r="334" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N334" s="8"/>
     </row>
-    <row r="335" spans="14:14" ht="15" customHeight="1">
+    <row r="335" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N335" s="8"/>
     </row>
-    <row r="336" spans="14:14" ht="15" customHeight="1">
+    <row r="336" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N336" s="8"/>
     </row>
-    <row r="337" spans="14:14" ht="15" customHeight="1">
+    <row r="337" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N337" s="8"/>
     </row>
-    <row r="338" spans="14:14" ht="15" customHeight="1">
+    <row r="338" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N338" s="8"/>
     </row>
-    <row r="339" spans="14:14" ht="15" customHeight="1">
+    <row r="339" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N339" s="8"/>
     </row>
-    <row r="340" spans="14:14" ht="15" customHeight="1">
+    <row r="340" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N340" s="8"/>
     </row>
-    <row r="341" spans="14:14" ht="15" customHeight="1">
+    <row r="341" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N341" s="8"/>
     </row>
-    <row r="342" spans="14:14" ht="15" customHeight="1">
+    <row r="342" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N342" s="8"/>
     </row>
-    <row r="343" spans="14:14" ht="15" customHeight="1">
+    <row r="343" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N343" s="8"/>
     </row>
-    <row r="344" spans="14:14" ht="15" customHeight="1">
+    <row r="344" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N344" s="8"/>
     </row>
-    <row r="345" spans="14:14" ht="15" customHeight="1">
+    <row r="345" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N345" s="8"/>
     </row>
-    <row r="346" spans="14:14" ht="15" customHeight="1">
+    <row r="346" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N346" s="8"/>
     </row>
-    <row r="347" spans="14:14" ht="15" customHeight="1">
+    <row r="347" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N347" s="8"/>
     </row>
-    <row r="348" spans="14:14" ht="15" customHeight="1">
+    <row r="348" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N348" s="8"/>
     </row>
-    <row r="349" spans="14:14" ht="15" customHeight="1">
+    <row r="349" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N349" s="8"/>
     </row>
-    <row r="350" spans="14:14" ht="15" customHeight="1">
+    <row r="350" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N350" s="8"/>
     </row>
-    <row r="351" spans="14:14" ht="15" customHeight="1">
+    <row r="351" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N351" s="8"/>
     </row>
-    <row r="352" spans="14:14" ht="15" customHeight="1">
+    <row r="352" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N352" s="8"/>
     </row>
-    <row r="353" spans="14:14" ht="15" customHeight="1">
+    <row r="353" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N353" s="8"/>
     </row>
-    <row r="354" spans="14:14" ht="15" customHeight="1">
+    <row r="354" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N354" s="8"/>
     </row>
-    <row r="355" spans="14:14" ht="15" customHeight="1">
+    <row r="355" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N355" s="8"/>
     </row>
-    <row r="356" spans="14:14" ht="15" customHeight="1">
+    <row r="356" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N356" s="8"/>
     </row>
-    <row r="357" spans="14:14" ht="15" customHeight="1">
+    <row r="357" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N357" s="8"/>
     </row>
-    <row r="358" spans="14:14" ht="15" customHeight="1">
+    <row r="358" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N358" s="8"/>
     </row>
-    <row r="359" spans="14:14" ht="15" customHeight="1">
+    <row r="359" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N359" s="8"/>
     </row>
-    <row r="360" spans="14:14" ht="15" customHeight="1">
+    <row r="360" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N360" s="8"/>
     </row>
-    <row r="361" spans="14:14" ht="15" customHeight="1">
+    <row r="361" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N361" s="8"/>
     </row>
-    <row r="362" spans="14:14" ht="15" customHeight="1">
+    <row r="362" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N362" s="8"/>
     </row>
-    <row r="363" spans="14:14" ht="15" customHeight="1">
+    <row r="363" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N363" s="8"/>
     </row>
-    <row r="364" spans="14:14" ht="15" customHeight="1">
+    <row r="364" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N364" s="8"/>
     </row>
-    <row r="365" spans="14:14" ht="15" customHeight="1">
+    <row r="365" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N365" s="8"/>
     </row>
-    <row r="366" spans="14:14" ht="15" customHeight="1">
+    <row r="366" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N366" s="8"/>
     </row>
-    <row r="367" spans="14:14" ht="15" customHeight="1">
+    <row r="367" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N367" s="8"/>
     </row>
-    <row r="368" spans="14:14" ht="15" customHeight="1">
+    <row r="368" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N368" s="8"/>
     </row>
-    <row r="369" spans="14:14" ht="15" customHeight="1">
+    <row r="369" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N369" s="8"/>
     </row>
-    <row r="370" spans="14:14" ht="15" customHeight="1">
+    <row r="370" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N370" s="8"/>
     </row>
-    <row r="371" spans="14:14" ht="15" customHeight="1">
+    <row r="371" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N371" s="8"/>
     </row>
-    <row r="372" spans="14:14" ht="15" customHeight="1">
+    <row r="372" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N372" s="8"/>
     </row>
-    <row r="373" spans="14:14" ht="15" customHeight="1">
+    <row r="373" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N373" s="8"/>
     </row>
-    <row r="374" spans="14:14" ht="15" customHeight="1">
+    <row r="374" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N374" s="8"/>
     </row>
-    <row r="375" spans="14:14" ht="15" customHeight="1">
+    <row r="375" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N375" s="8"/>
     </row>
-    <row r="376" spans="14:14" ht="15" customHeight="1">
+    <row r="376" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N376" s="8"/>
     </row>
-    <row r="377" spans="14:14" ht="15" customHeight="1">
+    <row r="377" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N377" s="8"/>
     </row>
-    <row r="378" spans="14:14" ht="15" customHeight="1">
+    <row r="378" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N378" s="8"/>
     </row>
-    <row r="379" spans="14:14" ht="15" customHeight="1">
+    <row r="379" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N379" s="8"/>
     </row>
-    <row r="380" spans="14:14" ht="15" customHeight="1">
+    <row r="380" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N380" s="8"/>
     </row>
-    <row r="381" spans="14:14" ht="15" customHeight="1">
+    <row r="381" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N381" s="8"/>
     </row>
-    <row r="382" spans="14:14" ht="15" customHeight="1">
+    <row r="382" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N382" s="8"/>
     </row>
-    <row r="383" spans="14:14" ht="15" customHeight="1">
+    <row r="383" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N383" s="8"/>
     </row>
-    <row r="384" spans="14:14" ht="15" customHeight="1">
+    <row r="384" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N384" s="8"/>
     </row>
-    <row r="385" spans="14:14" ht="15" customHeight="1">
+    <row r="385" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N385" s="8"/>
     </row>
-    <row r="386" spans="14:14" ht="15" customHeight="1">
+    <row r="386" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N386" s="8"/>
     </row>
-    <row r="387" spans="14:14" ht="15" customHeight="1">
+    <row r="387" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N387" s="8"/>
     </row>
-    <row r="388" spans="14:14" ht="15" customHeight="1">
+    <row r="388" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N388" s="8"/>
     </row>
-    <row r="389" spans="14:14" ht="15" customHeight="1">
+    <row r="389" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N389" s="8"/>
     </row>
-    <row r="390" spans="14:14" ht="15" customHeight="1">
+    <row r="390" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N390" s="8"/>
     </row>
-    <row r="391" spans="14:14" ht="15" customHeight="1">
+    <row r="391" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N391" s="8"/>
     </row>
-    <row r="392" spans="14:14" ht="15" customHeight="1">
+    <row r="392" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N392" s="8"/>
     </row>
-    <row r="393" spans="14:14" ht="15" customHeight="1">
+    <row r="393" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N393" s="8"/>
     </row>
-    <row r="394" spans="14:14" ht="15" customHeight="1">
+    <row r="394" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N394" s="8"/>
     </row>
-    <row r="395" spans="14:14" ht="15" customHeight="1">
+    <row r="395" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N395" s="8"/>
     </row>
-    <row r="396" spans="14:14" ht="15" customHeight="1">
+    <row r="396" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N396" s="8"/>
     </row>
-    <row r="397" spans="14:14" ht="15" customHeight="1">
+    <row r="397" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N397" s="8"/>
     </row>
-    <row r="398" spans="14:14" ht="15" customHeight="1">
+    <row r="398" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N398" s="8"/>
     </row>
-    <row r="399" spans="14:14" ht="15" customHeight="1">
+    <row r="399" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N399" s="8"/>
     </row>
-    <row r="400" spans="14:14" ht="15" customHeight="1">
+    <row r="400" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N400" s="8"/>
     </row>
-    <row r="401" spans="14:14" ht="15" customHeight="1">
+    <row r="401" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N401" s="8"/>
     </row>
-    <row r="402" spans="14:14" ht="15" customHeight="1">
+    <row r="402" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N402" s="8"/>
     </row>
-    <row r="403" spans="14:14" ht="15" customHeight="1">
+    <row r="403" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N403" s="8"/>
     </row>
-    <row r="404" spans="14:14" ht="15" customHeight="1">
+    <row r="404" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N404" s="8"/>
     </row>
-    <row r="405" spans="14:14" ht="15" customHeight="1">
+    <row r="405" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N405" s="8"/>
     </row>
-    <row r="406" spans="14:14" ht="15" customHeight="1">
+    <row r="406" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N406" s="8"/>
     </row>
-    <row r="407" spans="14:14" ht="15" customHeight="1">
+    <row r="407" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N407" s="8"/>
     </row>
-    <row r="408" spans="14:14" ht="15" customHeight="1">
+    <row r="408" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N408" s="8"/>
     </row>
-    <row r="409" spans="14:14" ht="15" customHeight="1">
+    <row r="409" spans="14:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N409" s="8"/>
     </row>
   </sheetData>
@@ -6723,43 +6735,43 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B5 B7 B9 B11 B13 B15:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B5 B7 B9 B11 B13 B15:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Employee,Spouse,Domestic Partner,Child"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B8 B10 B12 B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B8 B10 B12 B14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Employee,Spouse,Domestic Partner,Child,Disabled Child"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P60" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"home,work"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVB4:WVB301 WLF4:WLF301 WBJ4:WBJ301 VRN4:VRN301 VHR4:VHR301 UXV4:UXV301 UNZ4:UNZ301 UED4:UED301 TUH4:TUH301 TKL4:TKL301 TAP4:TAP301 SQT4:SQT301 SGX4:SGX301 RXB4:RXB301 RNF4:RNF301 RDJ4:RDJ301 QTN4:QTN301 QJR4:QJR301 PZV4:PZV301 PPZ4:PPZ301 PGD4:PGD301 OWH4:OWH301 OML4:OML301 OCP4:OCP301 NST4:NST301 NIX4:NIX301 MZB4:MZB301 MPF4:MPF301 MFJ4:MFJ301 LVN4:LVN301 LLR4:LLR301 LBV4:LBV301 KRZ4:KRZ301 KID4:KID301 JYH4:JYH301 JOL4:JOL301 JEP4:JEP301 IUT4:IUT301 IKX4:IKX301 IBB4:IBB301 HRF4:HRF301 HHJ4:HHJ301 GXN4:GXN301 GNR4:GNR301 GDV4:GDV301 FTZ4:FTZ301 FKD4:FKD301 FAH4:FAH301 EQL4:EQL301 EGP4:EGP301 DWT4:DWT301 DMX4:DMX301 DDB4:DDB301 CTF4:CTF301 CJJ4:CJJ301 BZN4:BZN301 BPR4:BPR301 BFV4:BFV301 AVZ4:AVZ301 AMD4:AMD301 ACH4:ACH301 SL4:SL301 IP4:IP301">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVB4:WVB301 WLF4:WLF301 WBJ4:WBJ301 VRN4:VRN301 VHR4:VHR301 UXV4:UXV301 UNZ4:UNZ301 UED4:UED301 TUH4:TUH301 TKL4:TKL301 TAP4:TAP301 SQT4:SQT301 SGX4:SGX301 RXB4:RXB301 RNF4:RNF301 RDJ4:RDJ301 QTN4:QTN301 QJR4:QJR301 PZV4:PZV301 PPZ4:PPZ301 PGD4:PGD301 OWH4:OWH301 OML4:OML301 OCP4:OCP301 NST4:NST301 NIX4:NIX301 MZB4:MZB301 MPF4:MPF301 MFJ4:MFJ301 LVN4:LVN301 LLR4:LLR301 LBV4:LBV301 KRZ4:KRZ301 KID4:KID301 JYH4:JYH301 JOL4:JOL301 JEP4:JEP301 IUT4:IUT301 IKX4:IKX301 IBB4:IBB301 HRF4:HRF301 HHJ4:HHJ301 GXN4:GXN301 GNR4:GNR301 GDV4:GDV301 FTZ4:FTZ301 FKD4:FKD301 FAH4:FAH301 EQL4:EQL301 EGP4:EGP301 DWT4:DWT301 DMX4:DMX301 DDB4:DDB301 CTF4:CTF301 CJJ4:CJJ301 BZN4:BZN301 BPR4:BPR301 BFV4:BFV301 AVZ4:AVZ301 AMD4:AMD301 ACH4:ACH301 SL4:SL301 IP4:IP301" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>EERelationships</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WBN4:WBN301 VRR4:VRR301 VHV4:VHV301 UXZ4:UXZ301 UOD4:UOD301 UEH4:UEH301 TUL4:TUL301 TKP4:TKP301 TAT4:TAT301 SQX4:SQX301 SHB4:SHB301 RXF4:RXF301 RNJ4:RNJ301 RDN4:RDN301 QTR4:QTR301 QJV4:QJV301 PZZ4:PZZ301 PQD4:PQD301 PGH4:PGH301 OWL4:OWL301 OMP4:OMP301 OCT4:OCT301 NSX4:NSX301 NJB4:NJB301 MZF4:MZF301 MPJ4:MPJ301 MFN4:MFN301 LVR4:LVR301 LLV4:LLV301 LBZ4:LBZ301 KSD4:KSD301 KIH4:KIH301 JYL4:JYL301 JOP4:JOP301 JET4:JET301 IUX4:IUX301 ILB4:ILB301 IBF4:IBF301 HRJ4:HRJ301 HHN4:HHN301 GXR4:GXR301 GNV4:GNV301 GDZ4:GDZ301 FUD4:FUD301 FKH4:FKH301 FAL4:FAL301 EQP4:EQP301 EGT4:EGT301 DWX4:DWX301 DNB4:DNB301 DDF4:DDF301 CTJ4:CTJ301 CJN4:CJN301 BZR4:BZR301 BPV4:BPV301 BFZ4:BFZ301 AWD4:AWD301 AMH4:AMH301 ACL4:ACL301 SP4:SP301 IT4:IT301 WVF4:WVF301 WLJ4:WLJ301">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WBN4:WBN301 VRR4:VRR301 VHV4:VHV301 UXZ4:UXZ301 UOD4:UOD301 UEH4:UEH301 TUL4:TUL301 TKP4:TKP301 TAT4:TAT301 SQX4:SQX301 SHB4:SHB301 RXF4:RXF301 RNJ4:RNJ301 RDN4:RDN301 QTR4:QTR301 QJV4:QJV301 PZZ4:PZZ301 PQD4:PQD301 PGH4:PGH301 OWL4:OWL301 OMP4:OMP301 OCT4:OCT301 NSX4:NSX301 NJB4:NJB301 MZF4:MZF301 MPJ4:MPJ301 MFN4:MFN301 LVR4:LVR301 LLV4:LLV301 LBZ4:LBZ301 KSD4:KSD301 KIH4:KIH301 JYL4:JYL301 JOP4:JOP301 JET4:JET301 IUX4:IUX301 ILB4:ILB301 IBF4:IBF301 HRJ4:HRJ301 HHN4:HHN301 GXR4:GXR301 GNV4:GNV301 GDZ4:GDZ301 FUD4:FUD301 FKH4:FKH301 FAL4:FAL301 EQP4:EQP301 EGT4:EGT301 DWX4:DWX301 DNB4:DNB301 DDF4:DDF301 CTJ4:CTJ301 CJN4:CJN301 BZR4:BZR301 BPV4:BPV301 BFZ4:BFZ301 AWD4:AWD301 AMH4:AMH301 ACL4:ACL301 SP4:SP301 IT4:IT301 WVF4:WVF301 WLJ4:WLJ301" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Suffix</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVK4:WVL301 WLO4:WLP301 WBS4:WBT301 VRW4:VRX301 VIA4:VIB301 UYE4:UYF301 UOI4:UOJ301 UEM4:UEN301 TUQ4:TUR301 TKU4:TKV301 TAY4:TAZ301 SRC4:SRD301 SHG4:SHH301 RXK4:RXL301 RNO4:RNP301 RDS4:RDT301 QTW4:QTX301 QKA4:QKB301 QAE4:QAF301 PQI4:PQJ301 PGM4:PGN301 OWQ4:OWR301 OMU4:OMV301 OCY4:OCZ301 NTC4:NTD301 NJG4:NJH301 MZK4:MZL301 MPO4:MPP301 MFS4:MFT301 LVW4:LVX301 LMA4:LMB301 LCE4:LCF301 KSI4:KSJ301 KIM4:KIN301 JYQ4:JYR301 JOU4:JOV301 JEY4:JEZ301 IVC4:IVD301 ILG4:ILH301 IBK4:IBL301 HRO4:HRP301 HHS4:HHT301 GXW4:GXX301 GOA4:GOB301 GEE4:GEF301 FUI4:FUJ301 FKM4:FKN301 FAQ4:FAR301 EQU4:EQV301 EGY4:EGZ301 DXC4:DXD301 DNG4:DNH301 DDK4:DDL301 CTO4:CTP301 CJS4:CJT301 BZW4:BZX301 BQA4:BQB301 BGE4:BGF301 AWI4:AWJ301 AMM4:AMN301 ACQ4:ACR301 SU4:SV301 IY4:IZ301">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="WVK4:WVL301 WLO4:WLP301 WBS4:WBT301 VRW4:VRX301 VIA4:VIB301 UYE4:UYF301 UOI4:UOJ301 UEM4:UEN301 TUQ4:TUR301 TKU4:TKV301 TAY4:TAZ301 SRC4:SRD301 SHG4:SHH301 RXK4:RXL301 RNO4:RNP301 RDS4:RDT301 QTW4:QTX301 QKA4:QKB301 QAE4:QAF301 PQI4:PQJ301 PGM4:PGN301 OWQ4:OWR301 OMU4:OMV301 OCY4:OCZ301 NTC4:NTD301 NJG4:NJH301 MZK4:MZL301 MPO4:MPP301 MFS4:MFT301 LVW4:LVX301 LMA4:LMB301 LCE4:LCF301 KSI4:KSJ301 KIM4:KIN301 JYQ4:JYR301 JOU4:JOV301 JEY4:JEZ301 IVC4:IVD301 ILG4:ILH301 IBK4:IBL301 HRO4:HRP301 HHS4:HHT301 GXW4:GXX301 GOA4:GOB301 GEE4:GEF301 FUI4:FUJ301 FKM4:FKN301 FAQ4:FAR301 EQU4:EQV301 EGY4:EGZ301 DXC4:DXD301 DNG4:DNH301 DDK4:DDL301 CTO4:CTP301 CJS4:CJT301 BZW4:BZX301 BQA4:BQB301 BGE4:BGF301 AWI4:AWJ301 AMM4:AMN301 ACQ4:ACR301 SU4:SV301 IY4:IZ301" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Status</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"male,female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"Jr., Sr., II, III, IV, V"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>7306</formula1>
       <formula2>TODAY()</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6773,12 +6785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
